--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fndc5-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fndc5-Itgav.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.420003</v>
+        <v>0.685737</v>
       </c>
       <c r="H2">
-        <v>1.260009</v>
+        <v>2.057211</v>
       </c>
       <c r="I2">
-        <v>0.04059036263460884</v>
+        <v>0.05519567570004053</v>
       </c>
       <c r="J2">
-        <v>0.04059036263460884</v>
+        <v>0.05519567570004053</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N2">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q2">
-        <v>6.450759156521999</v>
+        <v>6.462284227503001</v>
       </c>
       <c r="R2">
-        <v>58.056832408698</v>
+        <v>58.160558047527</v>
       </c>
       <c r="S2">
-        <v>0.004107918495449152</v>
+        <v>0.00367290587873599</v>
       </c>
       <c r="T2">
-        <v>0.004107918495449153</v>
+        <v>0.00367290587873599</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.420003</v>
+        <v>0.685737</v>
       </c>
       <c r="H3">
-        <v>1.260009</v>
+        <v>2.057211</v>
       </c>
       <c r="I3">
-        <v>0.04059036263460884</v>
+        <v>0.05519567570004053</v>
       </c>
       <c r="J3">
-        <v>0.04059036263460884</v>
+        <v>0.05519567570004053</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q3">
-        <v>21.249028937694</v>
+        <v>34.693193516826</v>
       </c>
       <c r="R3">
-        <v>191.241260439246</v>
+        <v>312.238741651434</v>
       </c>
       <c r="S3">
-        <v>0.01353162889289304</v>
+        <v>0.01971823428591471</v>
       </c>
       <c r="T3">
-        <v>0.01353162889289304</v>
+        <v>0.01971823428591471</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.420003</v>
+        <v>0.685737</v>
       </c>
       <c r="H4">
-        <v>1.260009</v>
+        <v>2.057211</v>
       </c>
       <c r="I4">
-        <v>0.04059036263460884</v>
+        <v>0.05519567570004053</v>
       </c>
       <c r="J4">
-        <v>0.04059036263460884</v>
+        <v>0.05519567570004053</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N4">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O4">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P4">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q4">
-        <v>10.681607576652</v>
+        <v>18.405704068752</v>
       </c>
       <c r="R4">
-        <v>96.13446818986799</v>
+        <v>165.651336618768</v>
       </c>
       <c r="S4">
-        <v>0.006802172001863498</v>
+        <v>0.01046107170413262</v>
       </c>
       <c r="T4">
-        <v>0.006802172001863498</v>
+        <v>0.01046107170413262</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.420003</v>
+        <v>0.685737</v>
       </c>
       <c r="H5">
-        <v>1.260009</v>
+        <v>2.057211</v>
       </c>
       <c r="I5">
-        <v>0.04059036263460884</v>
+        <v>0.05519567570004053</v>
       </c>
       <c r="J5">
-        <v>0.04059036263460884</v>
+        <v>0.05519567570004053</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N5">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q5">
-        <v>25.35858693147</v>
+        <v>37.552699206243</v>
       </c>
       <c r="R5">
-        <v>228.22728238323</v>
+        <v>337.974292856187</v>
       </c>
       <c r="S5">
-        <v>0.01614864324440315</v>
+        <v>0.02134346383125721</v>
       </c>
       <c r="T5">
-        <v>0.01614864324440315</v>
+        <v>0.02134346383125721</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>10.700606</v>
       </c>
       <c r="I6">
-        <v>0.3447129964548438</v>
+        <v>0.2871009238089374</v>
       </c>
       <c r="J6">
-        <v>0.3447129964548438</v>
+        <v>0.2871009238089374</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N6">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q6">
-        <v>54.78296753025911</v>
+        <v>33.61364360706023</v>
       </c>
       <c r="R6">
-        <v>493.0467077723321</v>
+        <v>302.522792463542</v>
       </c>
       <c r="S6">
-        <v>0.03488643120796293</v>
+        <v>0.01910466096255445</v>
       </c>
       <c r="T6">
-        <v>0.03488643120796294</v>
+        <v>0.01910466096255445</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>10.700606</v>
       </c>
       <c r="I7">
-        <v>0.3447129964548438</v>
+        <v>0.2871009238089374</v>
       </c>
       <c r="J7">
-        <v>0.3447129964548438</v>
+        <v>0.2871009238089374</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q7">
         <v>180.4570336758404</v>
@@ -883,10 +883,10 @@
         <v>1624.113303082564</v>
       </c>
       <c r="S7">
-        <v>0.114917138941916</v>
+        <v>0.1025646159335453</v>
       </c>
       <c r="T7">
-        <v>0.114917138941916</v>
+        <v>0.1025646159335453</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>10.700606</v>
       </c>
       <c r="I8">
-        <v>0.3447129964548438</v>
+        <v>0.2871009238089374</v>
       </c>
       <c r="J8">
-        <v>0.3447129964548438</v>
+        <v>0.2871009238089374</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N8">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O8">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P8">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q8">
-        <v>90.71337913012354</v>
+        <v>95.73747534516978</v>
       </c>
       <c r="R8">
-        <v>816.4204121711119</v>
+        <v>861.6372781065281</v>
       </c>
       <c r="S8">
-        <v>0.05776733542075696</v>
+        <v>0.05441338134186123</v>
       </c>
       <c r="T8">
-        <v>0.05776733542075697</v>
+        <v>0.05441338134186125</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>10.700606</v>
       </c>
       <c r="I9">
-        <v>0.3447129964548438</v>
+        <v>0.2871009238089374</v>
       </c>
       <c r="J9">
-        <v>0.3447129964548438</v>
+        <v>0.2871009238089374</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N9">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q9">
-        <v>215.3573882967578</v>
+        <v>195.3307844662113</v>
       </c>
       <c r="R9">
-        <v>1938.21649467082</v>
+        <v>1757.977060195902</v>
       </c>
       <c r="S9">
-        <v>0.1371420908842079</v>
+        <v>0.1110182655709764</v>
       </c>
       <c r="T9">
-        <v>0.1371420908842079</v>
+        <v>0.1110182655709764</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.328214333333332</v>
+        <v>7.915626666666667</v>
       </c>
       <c r="H10">
-        <v>18.984643</v>
+        <v>23.74688</v>
       </c>
       <c r="I10">
-        <v>0.6115778092526231</v>
+        <v>0.6371369234209706</v>
       </c>
       <c r="J10">
-        <v>0.6115778092526231</v>
+        <v>0.6371369234209707</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N10">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q10">
-        <v>97.19403565018288</v>
+        <v>74.59569683246224</v>
       </c>
       <c r="R10">
-        <v>874.746320851646</v>
+        <v>671.3612714921601</v>
       </c>
       <c r="S10">
-        <v>0.06189429290520883</v>
+        <v>0.04239723351354727</v>
       </c>
       <c r="T10">
-        <v>0.06189429290520884</v>
+        <v>0.04239723351354728</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.328214333333332</v>
+        <v>7.915626666666667</v>
       </c>
       <c r="H11">
-        <v>18.984643</v>
+        <v>23.74688</v>
       </c>
       <c r="I11">
-        <v>0.6115778092526231</v>
+        <v>0.6371369234209706</v>
       </c>
       <c r="J11">
-        <v>0.6115778092526231</v>
+        <v>0.6371369234209707</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q11">
-        <v>320.1605928836935</v>
+        <v>400.4718540105245</v>
       </c>
       <c r="R11">
-        <v>2881.445335953242</v>
+        <v>3604.24668609472</v>
       </c>
       <c r="S11">
-        <v>0.2038819911128092</v>
+        <v>0.2276123078281724</v>
       </c>
       <c r="T11">
-        <v>0.2038819911128092</v>
+        <v>0.2276123078281724</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.328214333333332</v>
+        <v>7.915626666666667</v>
       </c>
       <c r="H12">
-        <v>18.984643</v>
+        <v>23.74688</v>
       </c>
       <c r="I12">
-        <v>0.6115778092526231</v>
+        <v>0.6371369234209706</v>
       </c>
       <c r="J12">
-        <v>0.6115778092526231</v>
+        <v>0.6371369234209707</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N12">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O12">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P12">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q12">
-        <v>160.9405222572484</v>
+        <v>212.4614567179378</v>
       </c>
       <c r="R12">
-        <v>1448.464700315236</v>
+        <v>1912.15311046144</v>
       </c>
       <c r="S12">
-        <v>0.1024887973657123</v>
+        <v>0.1207546597939797</v>
       </c>
       <c r="T12">
-        <v>0.1024887973657124</v>
+        <v>0.1207546597939797</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.328214333333332</v>
+        <v>7.915626666666667</v>
       </c>
       <c r="H13">
-        <v>18.984643</v>
+        <v>23.74688</v>
       </c>
       <c r="I13">
-        <v>0.6115778092526231</v>
+        <v>0.6371369234209706</v>
       </c>
       <c r="J13">
-        <v>0.6115778092526231</v>
+        <v>0.6371369234209707</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N13">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q13">
-        <v>382.0795882239122</v>
+        <v>433.4798140427733</v>
       </c>
       <c r="R13">
-        <v>3438.71629401521</v>
+        <v>3901.31832638496</v>
       </c>
       <c r="S13">
-        <v>0.2433127278688927</v>
+        <v>0.2463727222852713</v>
       </c>
       <c r="T13">
-        <v>0.2433127278688927</v>
+        <v>0.2463727222852713</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.03227166666666666</v>
+        <v>0.2555126666666667</v>
       </c>
       <c r="H14">
-        <v>0.096815</v>
+        <v>0.7665379999999999</v>
       </c>
       <c r="I14">
-        <v>0.003118831657924392</v>
+        <v>0.02056647707005147</v>
       </c>
       <c r="J14">
-        <v>0.003118831657924392</v>
+        <v>0.02056647707005147</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N14">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q14">
-        <v>0.4956553863811111</v>
+        <v>2.407913639962889</v>
       </c>
       <c r="R14">
-        <v>4.460898477430001</v>
+        <v>21.671222759666</v>
       </c>
       <c r="S14">
-        <v>0.0003156391177657538</v>
+        <v>0.001368562547290739</v>
       </c>
       <c r="T14">
-        <v>0.0003156391177657538</v>
+        <v>0.001368562547290739</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.03227166666666666</v>
+        <v>0.2555126666666667</v>
       </c>
       <c r="H15">
-        <v>0.096815</v>
+        <v>0.7665379999999999</v>
       </c>
       <c r="I15">
-        <v>0.003118831657924392</v>
+        <v>0.02056647707005147</v>
       </c>
       <c r="J15">
-        <v>0.003118831657924392</v>
+        <v>0.02056647707005147</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>151.777694</v>
       </c>
       <c r="O15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q15">
-        <v>1.632706382734444</v>
+        <v>12.92704111148578</v>
       </c>
       <c r="R15">
-        <v>14.69435744461</v>
+        <v>116.343370003372</v>
       </c>
       <c r="S15">
-        <v>0.001039726423593355</v>
+        <v>0.007347217117279896</v>
       </c>
       <c r="T15">
-        <v>0.001039726423593355</v>
+        <v>0.007347217117279896</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.03227166666666666</v>
+        <v>0.2555126666666667</v>
       </c>
       <c r="H16">
-        <v>0.096815</v>
+        <v>0.7665379999999999</v>
       </c>
       <c r="I16">
-        <v>0.003118831657924392</v>
+        <v>0.02056647707005147</v>
       </c>
       <c r="J16">
-        <v>0.003118831657924392</v>
+        <v>0.02056647707005147</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N16">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O16">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P16">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q16">
-        <v>0.8207400403755554</v>
+        <v>6.858154844327111</v>
       </c>
       <c r="R16">
-        <v>7.386660363379999</v>
+        <v>61.723393598944</v>
       </c>
       <c r="S16">
-        <v>0.0005226568082929682</v>
+        <v>0.003897903025962046</v>
       </c>
       <c r="T16">
-        <v>0.0005226568082929682</v>
+        <v>0.003897903025962047</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.03227166666666666</v>
+        <v>0.2555126666666667</v>
       </c>
       <c r="H17">
-        <v>0.096815</v>
+        <v>0.7665379999999999</v>
       </c>
       <c r="I17">
-        <v>0.003118831657924392</v>
+        <v>0.02056647707005147</v>
       </c>
       <c r="J17">
-        <v>0.003118831657924392</v>
+        <v>0.02056647707005147</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N17">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q17">
-        <v>1.948471474227778</v>
+        <v>13.99252237332733</v>
       </c>
       <c r="R17">
-        <v>17.53624326805</v>
+        <v>125.932701359946</v>
       </c>
       <c r="S17">
-        <v>0.001240809308272315</v>
+        <v>0.007952794379518794</v>
       </c>
       <c r="T17">
-        <v>0.001240809308272315</v>
+        <v>0.007952794379518794</v>
       </c>
     </row>
   </sheetData>
